--- a/ValidationStartEnd.xlsx
+++ b/ValidationStartEnd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0117545\Documents\GitHub\ULIFT_BC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D93C0D0-8C48-43B5-982E-6A0DE251284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8482627D-8523-4D23-AE3F-8B9DCA9AC6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6896A571-C2CF-4ED1-96F5-06C70933E9EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6896A571-C2CF-4ED1-96F5-06C70933E9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
   <si>
     <t>subj_id</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>BC_002</t>
+  </si>
+  <si>
+    <t>BC_003</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C7F914-0B0E-40EC-93CB-7F6B04B8F5B0}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,6 +940,198 @@
         <v>18</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>339</v>
+      </c>
+      <c r="E28">
+        <v>1053</v>
+      </c>
+      <c r="F28">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>337</v>
+      </c>
+      <c r="E29">
+        <v>1130</v>
+      </c>
+      <c r="F29">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>1003</v>
+      </c>
+      <c r="F31">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <v>358</v>
+      </c>
+      <c r="E32">
+        <v>1258</v>
+      </c>
+      <c r="F32">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>382</v>
+      </c>
+      <c r="E33">
+        <v>1263</v>
+      </c>
+      <c r="F33">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>391</v>
+      </c>
+      <c r="E34">
+        <v>1225</v>
+      </c>
+      <c r="F34">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>358</v>
+      </c>
+      <c r="E36">
+        <v>1258</v>
+      </c>
+      <c r="F36">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>414</v>
+      </c>
+      <c r="E37">
+        <v>1277</v>
+      </c>
+      <c r="F37">
+        <v>1680</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ValidationStartEnd.xlsx
+++ b/ValidationStartEnd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0117545\Documents\GitHub\ULIFT_BC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8482627D-8523-4D23-AE3F-8B9DCA9AC6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A44306-529C-49AD-B0AC-3BC2D8969230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6896A571-C2CF-4ED1-96F5-06C70933E9EA}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <v>337</v>

--- a/ValidationStartEnd.xlsx
+++ b/ValidationStartEnd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0117545\Documents\GitHub\ULIFT_BC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A44306-529C-49AD-B0AC-3BC2D8969230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3899E9E-92E5-4012-9D86-832FAC5A60BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6896A571-C2CF-4ED1-96F5-06C70933E9EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6896A571-C2CF-4ED1-96F5-06C70933E9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
   <si>
     <t>subj_id</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>BC_003</t>
+  </si>
+  <si>
+    <t>BC_005</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C7F914-0B0E-40EC-93CB-7F6B04B8F5B0}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1047,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1130,6 +1133,165 @@
       </c>
       <c r="F37">
         <v>1680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>355</v>
+      </c>
+      <c r="E39">
+        <v>1104</v>
+      </c>
+      <c r="F39">
+        <v>1402</v>
+      </c>
+      <c r="G39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>130</v>
+      </c>
+      <c r="D40">
+        <v>406</v>
+      </c>
+      <c r="E40">
+        <v>1124</v>
+      </c>
+      <c r="F40">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>399</v>
+      </c>
+      <c r="E41">
+        <v>1161</v>
+      </c>
+      <c r="F41">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <v>393</v>
+      </c>
+      <c r="E42">
+        <v>1124</v>
+      </c>
+      <c r="F42">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>114</v>
+      </c>
+      <c r="D43">
+        <v>425</v>
+      </c>
+      <c r="E43">
+        <v>1137</v>
+      </c>
+      <c r="F43">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ValidationStartEnd.xlsx
+++ b/ValidationStartEnd.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0117545\Documents\GitHub\ULIFT_BC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3899E9E-92E5-4012-9D86-832FAC5A60BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B229215-1C60-4B1E-916B-F38CCCC134E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6896A571-C2CF-4ED1-96F5-06C70933E9EA}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{6896A571-C2CF-4ED1-96F5-06C70933E9EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ULIFT" sheetId="1" r:id="rId1"/>
+    <sheet name="Functional" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
   <si>
     <t>subj_id</t>
   </si>
@@ -100,16 +101,94 @@
   </si>
   <si>
     <t>BC_005</t>
+  </si>
+  <si>
+    <t>rep 1</t>
+  </si>
+  <si>
+    <t>rep 2</t>
+  </si>
+  <si>
+    <t>rep 3</t>
+  </si>
+  <si>
+    <t>rep 4</t>
+  </si>
+  <si>
+    <t>rep 5</t>
+  </si>
+  <si>
+    <t>rep 6</t>
+  </si>
+  <si>
+    <t>rep 7</t>
+  </si>
+  <si>
+    <t>rep 8</t>
+  </si>
+  <si>
+    <t>rep 9</t>
+  </si>
+  <si>
+    <t>rep 10</t>
+  </si>
+  <si>
+    <t>rep 11</t>
+  </si>
+  <si>
+    <t>rep 12</t>
+  </si>
+  <si>
+    <t>BC_007</t>
+  </si>
+  <si>
+    <t>BC_004</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>Timpoint</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>rep 13</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_L_002</t>
+  </si>
+  <si>
+    <t>F_R_002</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>rep 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,21 +532,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C7F914-0B0E-40EC-93CB-7F6B04B8F5B0}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -507,7 +586,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -527,7 +606,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -547,7 +626,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -567,7 +646,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -587,7 +666,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -607,7 +686,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -627,7 +706,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -635,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -655,7 +734,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -675,7 +754,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -695,7 +774,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -715,7 +794,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -735,7 +814,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -755,7 +834,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -775,7 +854,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -795,7 +874,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -815,7 +894,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -835,7 +914,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -855,7 +934,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -875,7 +954,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -895,7 +974,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -915,7 +994,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -935,7 +1014,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -943,7 +1022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -951,7 +1030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -959,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -979,7 +1058,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -999,7 +1078,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1106,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1126,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1146,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1087,7 +1166,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +1174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1115,7 +1194,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1214,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1166,7 +1245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1265,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1206,7 +1285,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1226,7 +1305,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1246,7 +1325,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -1254,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1262,7 +1341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1270,7 +1349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1278,7 +1357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -1286,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -1297,4 +1376,654 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E6282-4E1E-45F3-B1C6-5D046CCE4BD8}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>176</v>
+      </c>
+      <c r="E2">
+        <v>422</v>
+      </c>
+      <c r="F2">
+        <v>628</v>
+      </c>
+      <c r="G2">
+        <v>850</v>
+      </c>
+      <c r="H2">
+        <v>1059</v>
+      </c>
+      <c r="I2">
+        <v>1247</v>
+      </c>
+      <c r="J2">
+        <v>1463</v>
+      </c>
+      <c r="K2">
+        <v>1628</v>
+      </c>
+      <c r="L2">
+        <v>1779</v>
+      </c>
+      <c r="M2">
+        <v>1948</v>
+      </c>
+      <c r="N2">
+        <v>2111</v>
+      </c>
+      <c r="O2">
+        <v>2288</v>
+      </c>
+      <c r="P2">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>297</v>
+      </c>
+      <c r="F3">
+        <v>488</v>
+      </c>
+      <c r="G3">
+        <v>686</v>
+      </c>
+      <c r="H3">
+        <v>890</v>
+      </c>
+      <c r="I3">
+        <v>1085</v>
+      </c>
+      <c r="J3">
+        <v>1243</v>
+      </c>
+      <c r="K3">
+        <v>1397</v>
+      </c>
+      <c r="L3">
+        <v>1560</v>
+      </c>
+      <c r="M3">
+        <v>1730</v>
+      </c>
+      <c r="N3">
+        <v>1893</v>
+      </c>
+      <c r="O3">
+        <v>2065</v>
+      </c>
+      <c r="P3">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>108</v>
+      </c>
+      <c r="E4">
+        <v>291</v>
+      </c>
+      <c r="F4">
+        <v>466</v>
+      </c>
+      <c r="G4">
+        <v>632</v>
+      </c>
+      <c r="H4">
+        <v>809</v>
+      </c>
+      <c r="I4">
+        <v>975</v>
+      </c>
+      <c r="J4">
+        <v>1136</v>
+      </c>
+      <c r="K4">
+        <v>1320</v>
+      </c>
+      <c r="L4">
+        <v>1480</v>
+      </c>
+      <c r="M4">
+        <v>1650</v>
+      </c>
+      <c r="N4">
+        <v>1828</v>
+      </c>
+      <c r="O4">
+        <v>1989</v>
+      </c>
+      <c r="P4">
+        <v>2157</v>
+      </c>
+      <c r="Q4">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>279</v>
+      </c>
+      <c r="F5">
+        <v>471</v>
+      </c>
+      <c r="G5">
+        <v>664</v>
+      </c>
+      <c r="H5">
+        <v>825</v>
+      </c>
+      <c r="I5">
+        <v>1008</v>
+      </c>
+      <c r="J5">
+        <v>1198</v>
+      </c>
+      <c r="K5">
+        <v>1390</v>
+      </c>
+      <c r="L5">
+        <v>1579</v>
+      </c>
+      <c r="M5">
+        <v>1772</v>
+      </c>
+      <c r="N5">
+        <v>1959</v>
+      </c>
+      <c r="O5">
+        <v>2129</v>
+      </c>
+      <c r="P5">
+        <v>2296</v>
+      </c>
+      <c r="Q5">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>107</v>
+      </c>
+      <c r="E6">
+        <v>238</v>
+      </c>
+      <c r="F6">
+        <v>367</v>
+      </c>
+      <c r="G6">
+        <v>506</v>
+      </c>
+      <c r="H6">
+        <v>643</v>
+      </c>
+      <c r="I6">
+        <v>774</v>
+      </c>
+      <c r="J6">
+        <v>915</v>
+      </c>
+      <c r="K6">
+        <v>1040</v>
+      </c>
+      <c r="L6">
+        <v>1176</v>
+      </c>
+      <c r="M6">
+        <v>1302</v>
+      </c>
+      <c r="N6">
+        <v>1432</v>
+      </c>
+      <c r="O6">
+        <v>1560</v>
+      </c>
+      <c r="P6">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>152</v>
+      </c>
+      <c r="E7">
+        <v>314</v>
+      </c>
+      <c r="F7">
+        <v>454</v>
+      </c>
+      <c r="G7">
+        <v>612</v>
+      </c>
+      <c r="H7">
+        <v>808</v>
+      </c>
+      <c r="I7">
+        <v>968</v>
+      </c>
+      <c r="J7">
+        <v>1123</v>
+      </c>
+      <c r="K7">
+        <v>1279</v>
+      </c>
+      <c r="L7">
+        <v>1411</v>
+      </c>
+      <c r="M7">
+        <v>1560</v>
+      </c>
+      <c r="N7">
+        <v>1707</v>
+      </c>
+      <c r="O7">
+        <v>1846</v>
+      </c>
+      <c r="P7">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>113</v>
+      </c>
+      <c r="E14">
+        <v>273</v>
+      </c>
+      <c r="F14">
+        <v>411</v>
+      </c>
+      <c r="G14">
+        <v>540</v>
+      </c>
+      <c r="H14">
+        <v>684</v>
+      </c>
+      <c r="I14">
+        <v>826</v>
+      </c>
+      <c r="J14">
+        <v>960</v>
+      </c>
+      <c r="K14">
+        <v>1095</v>
+      </c>
+      <c r="L14">
+        <v>1236</v>
+      </c>
+      <c r="M14">
+        <v>1377</v>
+      </c>
+      <c r="N14">
+        <v>1516</v>
+      </c>
+      <c r="O14">
+        <v>1648</v>
+      </c>
+      <c r="P14">
+        <v>1789</v>
+      </c>
+      <c r="Q14">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>191</v>
+      </c>
+      <c r="E15">
+        <v>352</v>
+      </c>
+      <c r="F15">
+        <v>517</v>
+      </c>
+      <c r="G15">
+        <v>673</v>
+      </c>
+      <c r="H15">
+        <v>821</v>
+      </c>
+      <c r="I15">
+        <v>962</v>
+      </c>
+      <c r="J15">
+        <v>1105</v>
+      </c>
+      <c r="K15">
+        <v>1235</v>
+      </c>
+      <c r="L15">
+        <v>1372</v>
+      </c>
+      <c r="M15">
+        <v>1504</v>
+      </c>
+      <c r="N15">
+        <v>1628</v>
+      </c>
+      <c r="O15">
+        <v>1748</v>
+      </c>
+      <c r="P15">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>117</v>
+      </c>
+      <c r="E28">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>